--- a/xlsx/Mercedes-Benz_intext.xlsx
+++ b/xlsx/Mercedes-Benz_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="626">
   <si>
     <t>Mercedes-Benz</t>
   </si>
@@ -29,7 +29,7 @@
     <t>梅赛德斯 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Mercedes-Benz</t>
+    <t>政策_政策_混合动力车辆_Mercedes-Benz</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9C%AC%E8%8C%A8</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%99%BB-%E7%AC%A6%E9%A8%B0%E5%A0%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>巴登-符騰堡州</t>
+    <t>巴登-符腾堡州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9B%BE%E5%8A%A0%E7%89%B9</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>卡車</t>
+    <t>卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BD%A6</t>
@@ -113,21 +113,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E5%93%81%E7%89%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>汽車品牌列表</t>
+    <t>汽车品牌列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E5%8A%A0%E7%89%B9</t>
   </si>
   <si>
-    <t>斯圖加特</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E7%94%A8%E8%BD%A6%E8%BE%86</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%99%BB</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E9%A8%B0%E5%A0%A1%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>符騰堡王國</t>
+    <t>符腾堡王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%96%AF</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A2%85%E5%B7%B4%E8%B5%AB</t>
@@ -215,19 +212,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC</t>
   </si>
   <si>
-    <t>鋼</t>
+    <t>钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A2%E4%BE%88%E5%93%81</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%B0%A3%E6%B8%A6%E8%BC%AA%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>燃氣渦輪引擎</t>
+    <t>燃气涡轮引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E4%BE%9D%E8%8C%A8</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%ABCLS%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士CLS系列</t>
+    <t>梅赛德斯-宾士CLS系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0S%E7%BA%A7</t>
@@ -323,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>邁巴赫</t>
+    <t>迈巴赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%ABG%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士G系列</t>
+    <t>梅赛德斯-宾士G系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0GLA%E7%BA%A7</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%ABGLK%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士GLK系列</t>
+    <t>梅赛德斯-宾士GLK系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%94%E9%A9%B0GLE</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%ABM%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士M系列</t>
+    <t>梅赛德斯-宾士M系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V%E7%B3%BB%E5%88%97</t>
@@ -425,21 +422,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>機車</t>
+    <t>机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E5%A2%9E%E5%8E%8B</t>
   </si>
   <si>
@@ -449,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>艾德諾</t>
+    <t>艾德诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%ABW126</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士W126</t>
+    <t>梅赛德斯-宾士W126</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%87%AF%E4%BC%A6%E6%B1%BD%E8%BD%A6</t>
@@ -467,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E5%B9%B3%E6%B2%BBSLS_AMG</t>
   </si>
   <si>
-    <t>梅賽德斯-平治SLS AMG</t>
+    <t>梅赛德斯-平治SLS AMG</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-AMG</t>
   </si>
   <si>
-    <t>梅賽德斯-AMG</t>
+    <t>梅赛德斯-AMG</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%A0%E5%B0%BC</t>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%88%BF%E8%BB%8A%E8%B3%BD</t>
   </si>
   <si>
-    <t>德國房車賽</t>
+    <t>德国房车赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8D%A1%C2%B7%E5%93%88%E5%9F%BA%E5%AE%81</t>
@@ -503,19 +494,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E6%8A%AB%E6%B2%BB%E5%A4%A7%E8%B3%BD</t>
   </si>
   <si>
-    <t>格蘭披治大賽</t>
+    <t>格兰披治大赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Auto_Union</t>
@@ -527,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AA</t>
   </si>
   <si>
-    <t>奧迪</t>
+    <t>奥迪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Championship_(auto_racing)</t>
@@ -545,37 +536,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%8E%E6%8B%89%E8%92%82</t>
   </si>
   <si>
-    <t>瑪莎拉蒂</t>
+    <t>玛莎拉蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E6%9B%BC%E5%8A%AA%E5%9F%83%E7%88%BE%C2%B7%E6%96%B9%E5%90%89%E6%AD%90</t>
   </si>
   <si>
-    <t>胡安·曼努埃爾·方吉歐</t>
+    <t>胡安·曼努埃尔·方吉欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E7%8D%8E%E8%B3%BD</t>
   </si>
   <si>
-    <t>法國大獎賽</t>
+    <t>法国大奖赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%BE%B7%E9%9D%88%C2%B7%E6%91%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>史德靈·摩斯</t>
+    <t>史德灵·摩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1955%E5%B9%B4%E5%88%A9%E6%9B%BC%E6%85%98%E5%8A%87</t>
   </si>
   <si>
-    <t>1955年利曼慘劇</t>
+    <t>1955年利曼惨剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%9B%BC24%E5%B0%8F%E6%99%82%E8%80%90%E4%B9%85%E8%B3%BD</t>
   </si>
   <si>
-    <t>利曼24小時耐久賽</t>
+    <t>利曼24小时耐久赛</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Pierre_Levegh</t>
@@ -599,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E9%BD%8A%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>馬爾齊工程</t>
+    <t>马尔齐工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tyrrell_Racing</t>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E4%BC%AF%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>索伯車隊</t>
+    <t>索伯车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pacific_Racing</t>
@@ -635,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%87%B1%E8%BC%AA%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>邁凱輪車隊</t>
+    <t>迈凯轮车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92-%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>戴姆勒-克萊斯勒集團</t>
+    <t>戴姆勒-克莱斯勒集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF</t>
@@ -665,31 +656,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>布朗車隊</t>
+    <t>布朗车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%8A%9B%E9%87%8F%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>印度力量車隊</t>
+    <t>印度力量车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E6%96%AF%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>威廉斯車隊</t>
+    <t>威廉斯车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%AE%E8%8A%B1%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>蓮花車隊</t>
+    <t>莲花车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>戴姆勒集團</t>
+    <t>戴姆勒集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B5%9B%E5%BE%B7%E6%96%AFAMG%E8%BD%A6%E9%98%9F</t>
@@ -701,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%AF%C2%B7%E7%BE%85%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>尼可·羅斯堡</t>
+    <t>尼可·罗斯堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HWA%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>HWA車隊</t>
+    <t>HWA车队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/M%C3%BCcke_Motorsport</t>
@@ -731,19 +722,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%8B%E9%B9%BF%E6%B8%AC%E8%A9%A6</t>
   </si>
   <si>
-    <t>麋鹿測試</t>
+    <t>麋鹿测试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%BB%8A%E8%BA%AB%E5%8B%95%E6%85%8B%E7%A9%A9%E5%AE%9A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>電子車身動態穩定系統</t>
+    <t>电子车身动态稳定系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>中央電視台</t>
+    <t>中央电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%9D%E9%9D%92</t>
   </si>
   <si>
-    <t>瀝青</t>
+    <t>沥青</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>合資企業</t>
+    <t>合资企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A5%94%E9%A9%B0</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%B0%8F</t>
   </si>
   <si>
-    <t>攝氏</t>
+    <t>摄氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%8F%91%E6%94%B9%E5%A7%94</t>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%BA%A5%E7%89%B9</t>
   </si>
   <si>
-    <t>司麥特</t>
+    <t>司麦特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%BD%A6</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -833,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士</t>
+    <t>亚历山大丹尼士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%96%AF%E6%95%A6</t>
@@ -899,15 +890,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>萊特巴士</t>
+    <t>莱特巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AF%BA</t>
   </si>
   <si>
@@ -923,25 +911,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%83%A1%E7%88%BE%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>范胡爾公司</t>
+    <t>范胡尔公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VDL%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>VDL集團</t>
+    <t>VDL集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E9%9C%8D%E5%A4%AB</t>
@@ -977,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/MAN%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>MAN集團</t>
+    <t>MAN集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A5%A5%E6%99%AE%E5%85%B0</t>
@@ -1001,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%9C%B8_(%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>歐霸 (汽車公司)</t>
+    <t>欧霸 (汽车公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -1025,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%8B%89%E7%91%9E%E6%96%AF%E5%AE%A2%E8%BD%A6</t>
@@ -1043,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%B1%E6%B4%9B%E6%96%AF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>伊凱洛斯巴士</t>
+    <t>伊凯洛斯巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E6%B2%83%E9%9B%86%E5%9B%A2</t>
@@ -1061,25 +1049,25 @@
     <t>https://zh.wikipedia.org/wiki/UD%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>UD卡車</t>
+    <t>UD卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%9F%BA%E6%B1%BD%E8%BD%A6%E5%8E%82</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>塔塔汽車</t>
+    <t>塔塔汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1121,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>宇通客車</t>
+    <t>宇通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%99</t>
@@ -1187,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>中通客車</t>
+    <t>中通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E6%B1%BD%E8%BD%A6</t>
@@ -1241,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%B4%B2%E9%BE%8D</t>
   </si>
   <si>
-    <t>五洲龍</t>
+    <t>五洲龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AA</t>
@@ -1295,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
+    <t>现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E9%BE%99%E6%B1%BD%E8%BD%A6</t>
@@ -1325,19 +1313,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BE%B7%E5%8B%95%E8%83%BD%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>華德動能科技</t>
+    <t>华德动能科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1361,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>德國經濟</t>
+    <t>德国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%A4%E9%80%9A</t>
@@ -1427,9 +1415,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>迈巴赫</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Gumpert</t>
   </si>
   <si>
@@ -1457,9 +1442,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%AA</t>
   </si>
   <si>
-    <t>奥迪</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7</t>
   </si>
   <si>
@@ -1523,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/NSU%E8%BB%8A%E5%BB%A0</t>
   </si>
   <si>
-    <t>NSU車廠</t>
+    <t>NSU车厂</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wanderer_(car)</t>
@@ -1535,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F_(%E8%BD%8E%E8%BB%8A)</t>
   </si>
   <si>
-    <t>衛星 (轎車)</t>
+    <t>卫星 (轿车)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hansa_(car)</t>
@@ -1637,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%89%B9%E6%8B%89%E5%85%8B%E5%82%B3%E5%8B%95%E7%B3%BB%E7%B5%B1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>格特拉克傳動系統有限公司</t>
+    <t>格特拉克传动系统有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%8B%89</t>
@@ -1751,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>卡爾森</t>
+    <t>卡尔森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/G-Power</t>
@@ -1841,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%85%8B%E6%96%AF%E7%89%B9%E7%A7%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>席克斯特租車</t>
+    <t>席克斯特租车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%BE%B7%E6%B1%BD%E8%BD%A6%E4%BF%B1%E4%B9%90%E9%83%A8</t>
@@ -1865,19 +1847,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%88%BF%E8%BB%8A%E5%A4%A7%E5%B8%AB%E8%B3%BD</t>
   </si>
   <si>
-    <t>德國房車大師賽</t>
+    <t>德国房车大师赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>法蘭克福車展</t>
+    <t>法兰克福车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%B7%A5%E6%A5%AD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國汽車工業協會</t>
+    <t>德国汽车工业协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
@@ -1889,13 +1871,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2774,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2800,10 +2782,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2829,10 +2811,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2858,10 +2840,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>23</v>
@@ -2887,10 +2869,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -2916,10 +2898,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2945,10 +2927,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2974,10 +2956,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3003,10 +2985,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3032,10 +3014,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3061,10 +3043,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -3090,10 +3072,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3119,10 +3101,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -3148,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3177,10 +3159,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3206,10 +3188,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3235,10 +3217,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3264,10 +3246,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3293,10 +3275,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3322,10 +3304,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3351,10 +3333,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3380,10 +3362,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3409,10 +3391,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3438,10 +3420,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3467,10 +3449,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -3496,10 +3478,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3525,10 +3507,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3554,10 +3536,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -3583,10 +3565,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3612,10 +3594,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -3641,10 +3623,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3670,10 +3652,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3699,10 +3681,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -3728,10 +3710,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -3757,10 +3739,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3786,10 +3768,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3815,10 +3797,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3844,10 +3826,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3873,10 +3855,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3902,10 +3884,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3931,10 +3913,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3960,10 +3942,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3989,10 +3971,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4018,10 +4000,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4047,10 +4029,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4076,10 +4058,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4105,10 +4087,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4134,10 +4116,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4163,10 +4145,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4192,10 +4174,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4221,10 +4203,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4250,10 +4232,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4279,10 +4261,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="G70" t="n">
         <v>26</v>
@@ -4308,10 +4290,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4337,10 +4319,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4366,10 +4348,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4395,10 +4377,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4424,10 +4406,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4453,10 +4435,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4482,10 +4464,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>6</v>
@@ -4511,10 +4493,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>41</v>
@@ -4540,10 +4522,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4569,10 +4551,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4598,10 +4580,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
         <v>101</v>
-      </c>
-      <c r="F81" t="s">
-        <v>102</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4627,10 +4609,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4656,10 +4638,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4685,10 +4667,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4714,10 +4696,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4743,10 +4725,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4772,10 +4754,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4801,10 +4783,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4830,10 +4812,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4859,10 +4841,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4888,10 +4870,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4917,10 +4899,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4946,10 +4928,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4975,10 +4957,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5004,10 +4986,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5033,10 +5015,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5062,10 +5044,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5091,10 +5073,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5120,10 +5102,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5149,10 +5131,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5178,10 +5160,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5207,10 +5189,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -5236,10 +5218,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5265,10 +5247,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5294,10 +5276,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5323,10 +5305,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5352,10 +5334,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F107" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5381,10 +5363,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -5410,10 +5392,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5439,10 +5421,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5468,10 +5450,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5497,10 +5479,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5526,10 +5508,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5555,10 +5537,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5584,10 +5566,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5613,10 +5595,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -5642,10 +5624,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5671,10 +5653,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5700,10 +5682,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F119" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5729,10 +5711,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5758,10 +5740,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5787,10 +5769,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5816,10 +5798,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5845,10 +5827,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5874,10 +5856,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5903,10 +5885,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5932,10 +5914,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -5961,10 +5943,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5990,10 +5972,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>8</v>
@@ -6019,10 +6001,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6048,10 +6030,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6077,10 +6059,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6106,10 +6088,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6135,10 +6117,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6164,10 +6146,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6193,10 +6175,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -6251,10 +6233,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6280,10 +6262,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6309,10 +6291,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -6338,10 +6320,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>5</v>
@@ -6367,10 +6349,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6396,10 +6378,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6425,10 +6407,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6454,10 +6436,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6483,10 +6465,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6512,10 +6494,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6541,10 +6523,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6570,10 +6552,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6599,10 +6581,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -6628,10 +6610,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6657,10 +6639,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6686,10 +6668,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6715,10 +6697,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6744,10 +6726,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6773,10 +6755,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6802,10 +6784,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6831,10 +6813,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6860,10 +6842,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6889,10 +6871,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6918,10 +6900,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6947,10 +6929,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6976,10 +6958,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7005,10 +6987,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7034,10 +7016,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7063,10 +7045,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7092,10 +7074,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>5</v>
@@ -7121,10 +7103,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7150,10 +7132,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7179,10 +7161,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7208,10 +7190,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7237,10 +7219,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7266,10 +7248,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7295,10 +7277,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7324,10 +7306,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7353,10 +7335,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7382,10 +7364,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7411,10 +7393,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7440,10 +7422,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7469,10 +7451,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7498,10 +7480,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7527,10 +7509,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7556,10 +7538,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7585,10 +7567,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7614,10 +7596,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7643,10 +7625,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7672,10 +7654,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7701,10 +7683,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7730,10 +7712,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>7</v>
@@ -7759,10 +7741,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7788,10 +7770,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7817,10 +7799,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -7846,10 +7828,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7875,10 +7857,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7904,10 +7886,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7933,10 +7915,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7962,10 +7944,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7991,10 +7973,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8020,10 +8002,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8049,10 +8031,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8078,10 +8060,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8107,10 +8089,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8136,10 +8118,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8165,10 +8147,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8194,10 +8176,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8223,10 +8205,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8252,10 +8234,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8281,10 +8263,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8310,10 +8292,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8339,10 +8321,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8368,10 +8350,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8397,10 +8379,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8426,10 +8408,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8455,10 +8437,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8484,10 +8466,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8513,10 +8495,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8542,10 +8524,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8571,10 +8553,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8600,10 +8582,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8629,10 +8611,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8658,10 +8640,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8687,10 +8669,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8716,10 +8698,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8745,10 +8727,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8774,10 +8756,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8803,10 +8785,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8832,10 +8814,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8861,10 +8843,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8890,10 +8872,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8919,10 +8901,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8948,10 +8930,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -8977,10 +8959,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9006,10 +8988,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9035,10 +9017,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9064,10 +9046,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>5</v>
@@ -9093,10 +9075,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9122,10 +9104,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9151,10 +9133,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9180,10 +9162,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>7</v>
@@ -9209,10 +9191,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9238,10 +9220,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9267,10 +9249,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9296,10 +9278,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>101</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9325,10 +9307,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9354,10 +9336,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9383,10 +9365,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9412,10 +9394,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9441,10 +9423,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>167</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9470,10 +9452,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9499,10 +9481,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9528,10 +9510,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9557,10 +9539,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9586,10 +9568,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9615,10 +9597,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9644,10 +9626,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9673,10 +9655,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9702,10 +9684,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F257" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9731,10 +9713,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9760,10 +9742,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9789,10 +9771,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9818,10 +9800,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9847,10 +9829,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9876,10 +9858,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9905,10 +9887,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9934,10 +9916,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -9963,10 +9945,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -9992,10 +9974,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10021,10 +10003,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10050,10 +10032,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10079,10 +10061,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10108,10 +10090,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10137,10 +10119,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10166,10 +10148,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10195,10 +10177,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10224,10 +10206,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10253,10 +10235,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10282,10 +10264,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10311,10 +10293,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10340,10 +10322,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10369,10 +10351,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10398,10 +10380,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10427,10 +10409,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10456,10 +10438,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10485,10 +10467,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10514,10 +10496,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10543,10 +10525,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10572,10 +10554,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10601,10 +10583,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10630,10 +10612,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10659,10 +10641,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10688,10 +10670,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10717,10 +10699,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10746,10 +10728,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10775,10 +10757,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10804,10 +10786,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10833,10 +10815,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10862,10 +10844,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10891,10 +10873,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10920,10 +10902,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -10949,10 +10931,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -10978,10 +10960,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11007,10 +10989,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11036,10 +11018,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11065,10 +11047,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11094,10 +11076,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11123,10 +11105,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11152,10 +11134,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11181,10 +11163,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11210,10 +11192,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11239,10 +11221,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11268,10 +11250,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11297,10 +11279,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11326,10 +11308,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11355,10 +11337,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11384,10 +11366,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11413,10 +11395,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11442,10 +11424,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11471,10 +11453,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11500,10 +11482,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11529,10 +11511,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11558,10 +11540,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -11587,10 +11569,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11616,10 +11598,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11645,10 +11627,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>15</v>
@@ -11674,10 +11656,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
